--- a/Haarweg/misc/BADM-Instrument/HW-BADM-Instrument-v2020.xlsx
+++ b/Haarweg/misc/BADM-Instrument/HW-BADM-Instrument-v2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\zz_HaarwegDuivendaal\FLUXNET\Haarweg\misc\BADM-Instrument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFD414-CA06-4E12-8D0E-E2861CC682BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B8A03-622D-4DD5-80BA-3C0BE5B03F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="500">
   <si>
     <t>Variable</t>
   </si>
@@ -1440,23 +1440,95 @@
     <t>Report the north-south distance between a pair of instruments used together to produce a variable as measured via GPS, tape and compass, or other method. Use magnetic north as a reference. For example, report N-S separation between a sonic anemometer and gas analyzer used to produce the variable FC (CO2 flux).</t>
   </si>
   <si>
-    <t>NL-Vkp</t>
-  </si>
-  <si>
-    <t>Veenkampen</t>
-  </si>
-  <si>
     <t>Johannes G.M. Barten</t>
   </si>
   <si>
     <t>sjoerd.barten@wur.nl</t>
+  </si>
+  <si>
+    <t>200101010000</t>
+  </si>
+  <si>
+    <t>U,V,W</t>
+  </si>
+  <si>
+    <t>GA_OP-LI-COR LI-7500 / SA-Campbell CSAT-3</t>
+  </si>
+  <si>
+    <t>-0.29</t>
+  </si>
+  <si>
+    <t>NL-Hrw</t>
+  </si>
+  <si>
+    <t>Haarweg</t>
+  </si>
+  <si>
+    <t>30 / 258</t>
+  </si>
+  <si>
+    <t>HW_RAD_1</t>
+  </si>
+  <si>
+    <t>HW_RAD_2</t>
+  </si>
+  <si>
+    <t>HW_PREC_1</t>
+  </si>
+  <si>
+    <t>HW_TEMP_1</t>
+  </si>
+  <si>
+    <t>HW_SOIL_1</t>
+  </si>
+  <si>
+    <t>HW_RH_1</t>
+  </si>
+  <si>
+    <t>HW_RH_2</t>
+  </si>
+  <si>
+    <t>HW_WIND_1</t>
+  </si>
+  <si>
+    <t>HW_WIND_2</t>
+  </si>
+  <si>
+    <t>Gas-analyser: LiCor7500 / Sonic-anemometer: CSAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kipp CM14 </t>
+  </si>
+  <si>
+    <t>Kipp CG2</t>
+  </si>
+  <si>
+    <t>Rain bucket</t>
+  </si>
+  <si>
+    <t>Pt100; Grass + bare soil</t>
+  </si>
+  <si>
+    <t>TNO-WS31; Grass + bare soil</t>
+  </si>
+  <si>
+    <t>Pt100</t>
+  </si>
+  <si>
+    <t>Hair-hygrometer</t>
+  </si>
+  <si>
+    <t>Vaisala Humicap</t>
+  </si>
+  <si>
+    <t>Wind vane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,6 +1548,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1545,7 +1629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1576,6 +1660,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1879,16 +1972,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1913,10 +2007,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1927,10 +2021,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1941,10 +2035,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1955,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1972,7 +2066,7 @@
         <v>20250425</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1982,8 +2076,41 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1993,8 +2120,41 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2004,8 +2164,41 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2015,8 +2208,41 @@
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2026,8 +2252,41 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="H11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I11" t="s">
+        <v>495</v>
+      </c>
+      <c r="J11" t="s">
+        <v>496</v>
+      </c>
+      <c r="K11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L11" t="s">
+        <v>498</v>
+      </c>
+      <c r="M11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2037,8 +2296,19 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2048,8 +2318,41 @@
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15">
+        <v>10</v>
+      </c>
+      <c r="H13" s="15">
+        <v>10</v>
+      </c>
+      <c r="I13" s="15">
+        <v>10</v>
+      </c>
+      <c r="J13" s="15">
+        <v>10</v>
+      </c>
+      <c r="K13" s="15">
+        <v>10</v>
+      </c>
+      <c r="L13" s="15">
+        <v>10</v>
+      </c>
+      <c r="M13" s="15">
+        <v>10</v>
+      </c>
+      <c r="N13" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2059,8 +2362,19 @@
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2070,8 +2384,41 @@
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2081,8 +2428,41 @@
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2092,8 +2472,41 @@
       <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2103,8 +2516,12 @@
       <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>205</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2114,8 +2531,12 @@
       <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2126,7 +2547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2137,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -2147,8 +2568,9 @@
       <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2158,8 +2580,9 @@
       <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2169,8 +2592,9 @@
       <c r="C24" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2180,8 +2604,9 @@
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -2191,8 +2616,9 @@
       <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -2202,8 +2628,9 @@
       <c r="C27" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2213,8 +2640,9 @@
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2224,8 +2652,9 @@
       <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2235,8 +2664,11 @@
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2246,8 +2678,9 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -2257,8 +2690,11 @@
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -2268,8 +2704,9 @@
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -2279,8 +2716,11 @@
       <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2290,8 +2730,11 @@
       <c r="C35" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -2301,8 +2744,9 @@
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2312,8 +2756,11 @@
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -2323,8 +2770,9 @@
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2334,12 +2782,20 @@
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{B0400658-2A2F-4C9A-AA5E-2015BC84A8F8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2347,7 +2803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4253,7 +4711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Haarweg/misc/BADM-Instrument/HW-BADM-Instrument-v2020.xlsx
+++ b/Haarweg/misc/BADM-Instrument/HW-BADM-Instrument-v2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\zz_HaarwegDuivendaal\FLUXNET\Haarweg\misc\BADM-Instrument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B8A03-622D-4DD5-80BA-3C0BE5B03F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6794E959-7B82-4AD4-9BBD-DB1C9CD56714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="500">
   <si>
     <t>Variable</t>
   </si>
@@ -1452,9 +1452,6 @@
     <t>U,V,W</t>
   </si>
   <si>
-    <t>GA_OP-LI-COR LI-7500 / SA-Campbell CSAT-3</t>
-  </si>
-  <si>
     <t>-0.29</t>
   </si>
   <si>
@@ -1464,9 +1461,6 @@
     <t>Haarweg</t>
   </si>
   <si>
-    <t>30 / 258</t>
-  </si>
-  <si>
     <t>HW_RAD_1</t>
   </si>
   <si>
@@ -1494,9 +1488,6 @@
     <t>HW_WIND_2</t>
   </si>
   <si>
-    <t>Gas-analyser: LiCor7500 / Sonic-anemometer: CSAT3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kipp CM14 </t>
   </si>
   <si>
@@ -1522,6 +1513,15 @@
   </si>
   <si>
     <t>Wind vane</t>
+  </si>
+  <si>
+    <t>Sonic-anemometer: CSAT3</t>
+  </si>
+  <si>
+    <t>Gas-analyser: LiCor7500</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1562,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,12 +1609,6 @@
         <fgColor rgb="FFCBFFF7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1629,7 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1659,16 +1653,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1972,17 +1965,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,8 +1988,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2007,10 +2001,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2021,10 +2015,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2032,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2051,8 +2045,9 @@
       <c r="D5" s="12" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2062,11 +2057,12 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13">
-        <v>20250425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="14">
+        <v>20250521</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2077,40 +2073,43 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
         <v>321</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>327</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>307</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>371</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>307</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>289</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>301</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>267</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2120,41 +2119,44 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14">
+        <v>258</v>
+      </c>
+      <c r="E8" s="14">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="K8" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="O8" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2164,41 +2166,44 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="13" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O9" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2241,8 +2246,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2253,40 +2261,43 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="I11" t="s">
         <v>491</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>492</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="K11" t="s">
         <v>493</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>494</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>495</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
+        <v>268</v>
+      </c>
+      <c r="O11" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="K11" t="s">
-        <v>497</v>
-      </c>
-      <c r="L11" t="s">
-        <v>498</v>
-      </c>
-      <c r="M11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2296,19 +2307,44 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2321,38 +2357,41 @@
       <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="14">
         <v>10</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="14">
         <v>10</v>
       </c>
-      <c r="G13" s="15">
+      <c r="H13" s="14">
         <v>10</v>
       </c>
-      <c r="H13" s="15">
+      <c r="I13" s="14">
         <v>10</v>
       </c>
-      <c r="I13" s="15">
+      <c r="J13" s="14">
         <v>10</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="14">
         <v>10</v>
       </c>
-      <c r="K13" s="15">
+      <c r="L13" s="14">
         <v>10</v>
       </c>
-      <c r="L13" s="15">
+      <c r="M13" s="14">
         <v>10</v>
       </c>
-      <c r="M13" s="15">
+      <c r="N13" s="14">
         <v>10</v>
       </c>
-      <c r="N13" s="15">
+      <c r="O13" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2362,19 +2401,20 @@
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2417,8 +2457,11 @@
       <c r="N15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2437,11 +2480,11 @@
       <c r="F16" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="H16" t="s">
-        <v>114</v>
       </c>
       <c r="I16" t="s">
         <v>114</v>
@@ -2461,8 +2504,11 @@
       <c r="N16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2505,8 +2551,11 @@
       <c r="N17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2519,9 +2568,12 @@
       <c r="D18">
         <v>205</v>
       </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>205</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2534,9 +2586,9 @@
       <c r="D19" t="s">
         <v>475</v>
       </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2547,7 +2599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2558,7 +2610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -2568,9 +2620,10 @@
       <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2580,9 +2633,10 @@
       <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2592,9 +2646,10 @@
       <c r="C24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2604,9 +2659,10 @@
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -2616,9 +2672,10 @@
       <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -2628,9 +2685,10 @@
       <c r="C27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2640,9 +2698,12 @@
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2652,9 +2713,12 @@
       <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="15">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2664,11 +2728,12 @@
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2678,9 +2743,12 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="15">
+        <v>30</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -2690,11 +2758,12 @@
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -2704,9 +2773,12 @@
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="15">
+        <v>258</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -2716,11 +2788,12 @@
       <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2730,11 +2803,12 @@
       <c r="C35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -2744,9 +2818,10 @@
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2756,11 +2831,12 @@
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -2770,9 +2846,12 @@
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2782,13 +2861,18 @@
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="17"/>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
